--- a/PinStatus.xlsx
+++ b/PinStatus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K\Documents\stu\51dpj\CAR\TEST\11-08-test0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K\Documents\stu\EC\CAR\TEST\GitCAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505FB1B6-C317-4BE9-8D3A-A649B25D73E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DC868C-B302-4CB4-B904-CD113B531728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,9 +764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="312" zoomScaleNormal="370" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>

--- a/PinStatus.xlsx
+++ b/PinStatus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K\Documents\stu\EC\CAR\TEST\GitCAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DC868C-B302-4CB4-B904-CD113B531728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9065DF-2820-48B2-B28A-25AC13A57C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultrasound超声波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRIG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECHO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +231,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -407,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,6 +500,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -839,8 +861,12 @@
       <c r="C2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="13" t="s">
@@ -1051,7 +1077,9 @@
       <c r="Q8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="5"/>
+      <c r="R8" s="30" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
